--- a/s18/reports/tv-store/tvstore.xlsx
+++ b/s18/reports/tv-store/tvstore.xlsx
@@ -56,10 +56,10 @@
     <t>Misung Kft.</t>
   </si>
   <si>
-    <t>encse+m@mobilengine.com</t>
-  </si>
-  <si>
-    <t>encse+k@mobilengine.com</t>
+    <t>workshop+k@mobilengine.com</t>
+  </si>
+  <si>
+    <t>workshop+m@mobilengine.com</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,7 +561,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -572,7 +572,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
